--- a/assets/generated/model4/TotalProductionTime.xlsx
+++ b/assets/generated/model4/TotalProductionTime.xlsx
@@ -348,7 +348,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1">
-        <v>218</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/assets/generated/model4/TotalProductionTime.xlsx
+++ b/assets/generated/model4/TotalProductionTime.xlsx
@@ -348,7 +348,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1">
-        <v>114</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
